--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2077,28 +2077,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>392.7116840696424</v>
+        <v>434.1990286873736</v>
       </c>
       <c r="AB2" t="n">
-        <v>537.3254513608346</v>
+        <v>594.0902665592832</v>
       </c>
       <c r="AC2" t="n">
-        <v>486.0438644239631</v>
+        <v>537.3911253297904</v>
       </c>
       <c r="AD2" t="n">
-        <v>392711.6840696424</v>
+        <v>434199.0286873736</v>
       </c>
       <c r="AE2" t="n">
-        <v>537325.4513608345</v>
+        <v>594090.2665592832</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.774284157870073e-06</v>
+        <v>4.690065018319996e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.304166666666668</v>
       </c>
       <c r="AH2" t="n">
-        <v>486043.8644239631</v>
+        <v>537391.1253297904</v>
       </c>
     </row>
     <row r="3">
@@ -2183,28 +2183,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.6472051754438</v>
+        <v>171.7199760800426</v>
       </c>
       <c r="AB3" t="n">
-        <v>192.4397110377281</v>
+        <v>234.9548470232826</v>
       </c>
       <c r="AC3" t="n">
-        <v>174.0735351071725</v>
+        <v>212.5310861846473</v>
       </c>
       <c r="AD3" t="n">
-        <v>140647.2051754438</v>
+        <v>171719.9760800425</v>
       </c>
       <c r="AE3" t="n">
-        <v>192439.7110377281</v>
+        <v>234954.8470232826</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.095159515053381e-06</v>
+        <v>8.61361996265679e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.976388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>174073.5351071725</v>
+        <v>212531.0861846473</v>
       </c>
     </row>
     <row r="4">
@@ -2289,28 +2289,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>112.7341270261125</v>
+        <v>133.3925032346817</v>
       </c>
       <c r="AB4" t="n">
-        <v>154.2478060757349</v>
+        <v>182.5135077875212</v>
       </c>
       <c r="AC4" t="n">
-        <v>139.5266119520645</v>
+        <v>165.0946747636484</v>
       </c>
       <c r="AD4" t="n">
-        <v>112734.1270261125</v>
+        <v>133392.5032346817</v>
       </c>
       <c r="AE4" t="n">
-        <v>154247.8060757349</v>
+        <v>182513.5077875212</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.94683280282987e-06</v>
+        <v>1.005341591243605e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.406944444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>139526.6119520644</v>
+        <v>165094.6747636484</v>
       </c>
     </row>
     <row r="5">
@@ -2395,28 +2395,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>106.2795961010493</v>
+        <v>116.694169814181</v>
       </c>
       <c r="AB5" t="n">
-        <v>145.4164321102603</v>
+        <v>159.6661113231252</v>
       </c>
       <c r="AC5" t="n">
-        <v>131.5380919229407</v>
+        <v>144.4278017512848</v>
       </c>
       <c r="AD5" t="n">
-        <v>106279.5961010493</v>
+        <v>116694.169814181</v>
       </c>
       <c r="AE5" t="n">
-        <v>145416.4321102603</v>
+        <v>159666.1113231252</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.15369692103252e-06</v>
+        <v>1.040312996806931e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.293055555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>131538.0919229407</v>
+        <v>144427.8017512848</v>
       </c>
     </row>
   </sheetData>
@@ -2692,28 +2692,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>241.6391601589861</v>
+        <v>271.9108636905696</v>
       </c>
       <c r="AB2" t="n">
-        <v>330.6213592967454</v>
+        <v>372.0404395621189</v>
       </c>
       <c r="AC2" t="n">
-        <v>299.0673207955545</v>
+        <v>336.5334221723459</v>
       </c>
       <c r="AD2" t="n">
-        <v>241639.1601589861</v>
+        <v>271910.8636905695</v>
       </c>
       <c r="AE2" t="n">
-        <v>330621.3592967454</v>
+        <v>372040.439562119</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.653359984094732e-06</v>
+        <v>6.326855967553839e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.737500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>299067.3207955545</v>
+        <v>336533.4221723459</v>
       </c>
     </row>
     <row r="3">
@@ -2798,28 +2798,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.5914226101419</v>
+        <v>132.7725582978619</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.0525515981295</v>
+        <v>181.6652717749244</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.3499922877602</v>
+        <v>164.3273932055868</v>
       </c>
       <c r="AD3" t="n">
-        <v>112591.4226101419</v>
+        <v>132772.5582978619</v>
       </c>
       <c r="AE3" t="n">
-        <v>154052.5515981295</v>
+        <v>181665.2717749244</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.829107294516649e-06</v>
+        <v>1.009479559429804e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.595833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>139349.9922877603</v>
+        <v>164327.3932055868</v>
       </c>
     </row>
     <row r="4">
@@ -2904,28 +2904,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>100.3835752276836</v>
+        <v>120.3941187148114</v>
       </c>
       <c r="AB4" t="n">
-        <v>137.3492362372424</v>
+        <v>164.7285446391905</v>
       </c>
       <c r="AC4" t="n">
-        <v>124.2408179016606</v>
+        <v>149.0070835368361</v>
       </c>
       <c r="AD4" t="n">
-        <v>100383.5752276836</v>
+        <v>120394.1187148114</v>
       </c>
       <c r="AE4" t="n">
-        <v>137349.2362372424</v>
+        <v>164728.5446391905</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.293172147089819e-06</v>
+        <v>1.089845893287323e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.330555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>124240.8179016606</v>
+        <v>149007.0835368361</v>
       </c>
     </row>
   </sheetData>
@@ -3201,28 +3201,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.04992717735711</v>
+        <v>109.2806584027876</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.5785272033015</v>
+        <v>149.5226179490212</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.6889274141122</v>
+        <v>135.2523891483196</v>
       </c>
       <c r="AD2" t="n">
-        <v>91049.92717735711</v>
+        <v>109280.6584027876</v>
       </c>
       <c r="AE2" t="n">
-        <v>124578.5272033015</v>
+        <v>149522.6179490212</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.180433738607856e-06</v>
+        <v>1.169471059924895e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.784722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>112688.9274141122</v>
+        <v>135252.3891483196</v>
       </c>
     </row>
     <row r="3">
@@ -3307,28 +3307,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>91.39244853419572</v>
+        <v>109.6231797596262</v>
       </c>
       <c r="AB3" t="n">
-        <v>125.0471800347036</v>
+        <v>149.9912707804233</v>
       </c>
       <c r="AC3" t="n">
-        <v>113.1128526770439</v>
+        <v>135.6763144112513</v>
       </c>
       <c r="AD3" t="n">
-        <v>91392.44853419572</v>
+        <v>109623.1797596262</v>
       </c>
       <c r="AE3" t="n">
-        <v>125047.1800347036</v>
+        <v>149991.2707804233</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.185148927422357e-06</v>
+        <v>1.170363275114614e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.781944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>113112.8526770439</v>
+        <v>135676.3144112513</v>
       </c>
     </row>
   </sheetData>
@@ -3604,28 +3604,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.4958456105866</v>
+        <v>145.4038558225107</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.0771965671781</v>
+        <v>198.947970301658</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.5589518422259</v>
+        <v>179.9606552413543</v>
       </c>
       <c r="AD2" t="n">
-        <v>126495.8456105866</v>
+        <v>145403.8558225107</v>
       </c>
       <c r="AE2" t="n">
-        <v>173077.1965671781</v>
+        <v>198947.970301658</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.394357921328716e-06</v>
+        <v>9.827348614165717e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.148611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>156558.9518422259</v>
+        <v>179960.6552413543</v>
       </c>
     </row>
     <row r="3">
@@ -3710,28 +3710,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.44522514287725</v>
+        <v>112.4384867008219</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.8558795528127</v>
+        <v>153.8432979399418</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.6534938551801</v>
+        <v>139.1607095050206</v>
       </c>
       <c r="AD3" t="n">
-        <v>93445.22514287724</v>
+        <v>112438.4867008219</v>
       </c>
       <c r="AE3" t="n">
-        <v>127855.8795528127</v>
+        <v>153843.2979399418</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.331008170839085e-06</v>
+        <v>1.153372195196167e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.534722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>115653.4938551801</v>
+        <v>139160.7095050206</v>
       </c>
     </row>
   </sheetData>
@@ -4007,28 +4007,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.80268065366207</v>
+        <v>117.3227292417759</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.5544306538066</v>
+        <v>160.526134062045</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.521867447591</v>
+        <v>145.2057451270518</v>
       </c>
       <c r="AD2" t="n">
-        <v>99802.68065366207</v>
+        <v>117322.7292417759</v>
       </c>
       <c r="AE2" t="n">
-        <v>136554.4306538066</v>
+        <v>160526.134062045</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.89543329053446e-06</v>
+        <v>1.155314973808422e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.120833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>123521.867447591</v>
+        <v>145205.7451270518</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>277.6568852966278</v>
+        <v>308.0987534206554</v>
       </c>
       <c r="AB2" t="n">
-        <v>379.9023998201101</v>
+        <v>421.5543067878423</v>
       </c>
       <c r="AC2" t="n">
-        <v>343.645047977645</v>
+        <v>381.3217554031953</v>
       </c>
       <c r="AD2" t="n">
-        <v>277656.8852966278</v>
+        <v>308098.7534206554</v>
       </c>
       <c r="AE2" t="n">
-        <v>379902.3998201101</v>
+        <v>421554.3067878423</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.419234707472164e-06</v>
+        <v>5.882729057517221e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.075</v>
       </c>
       <c r="AH2" t="n">
-        <v>343645.0479776451</v>
+        <v>381321.7554031953</v>
       </c>
     </row>
     <row r="3">
@@ -4410,28 +4410,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.0964778073132</v>
+        <v>140.4478907873451</v>
       </c>
       <c r="AB3" t="n">
-        <v>164.3212992185616</v>
+        <v>192.1670002988015</v>
       </c>
       <c r="AC3" t="n">
-        <v>148.6387050475794</v>
+        <v>173.826851498417</v>
       </c>
       <c r="AD3" t="n">
-        <v>120096.4778073132</v>
+        <v>140447.8907873451</v>
       </c>
       <c r="AE3" t="n">
-        <v>164321.2992185616</v>
+        <v>192167.0002988015</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.604900704104051e-06</v>
+        <v>9.643126330133644e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.705555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>148638.7050475794</v>
+        <v>173826.851498417</v>
       </c>
     </row>
     <row r="4">
@@ -4516,28 +4516,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>101.7073061640357</v>
+        <v>121.8881269434754</v>
       </c>
       <c r="AB4" t="n">
-        <v>139.1604233032458</v>
+        <v>166.7727126086388</v>
       </c>
       <c r="AC4" t="n">
-        <v>125.8791478161021</v>
+        <v>150.8561589842887</v>
       </c>
       <c r="AD4" t="n">
-        <v>101707.3061640357</v>
+        <v>121888.1269434754</v>
       </c>
       <c r="AE4" t="n">
-        <v>139160.4233032457</v>
+        <v>166772.7126086388</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.266253861152512e-06</v>
+        <v>1.078097200821698e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.315277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>125879.1478161021</v>
+        <v>150856.1589842887</v>
       </c>
     </row>
     <row r="5">
@@ -4622,28 +4622,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>102.0287656366227</v>
+        <v>122.2095864160624</v>
       </c>
       <c r="AB5" t="n">
-        <v>139.6002583354301</v>
+        <v>167.2125476408231</v>
       </c>
       <c r="AC5" t="n">
-        <v>126.2770056101273</v>
+        <v>151.2540167783139</v>
       </c>
       <c r="AD5" t="n">
-        <v>102028.7656366227</v>
+        <v>122209.5864160623</v>
       </c>
       <c r="AE5" t="n">
-        <v>139600.2583354301</v>
+        <v>167212.5476408231</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.266104301415504e-06</v>
+        <v>1.078071469350009e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.315277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>126277.0056101273</v>
+        <v>151254.0167783138</v>
       </c>
     </row>
   </sheetData>
@@ -4919,28 +4919,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.9346225683549</v>
+        <v>118.0843221881766</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.1032035192414</v>
+        <v>161.5681791304194</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.9228276044656</v>
+        <v>146.1483388766203</v>
       </c>
       <c r="AD2" t="n">
-        <v>100934.6225683549</v>
+        <v>118084.3221881766</v>
       </c>
       <c r="AE2" t="n">
-        <v>138103.2035192414</v>
+        <v>161568.1791304194</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.615524530359628e-06</v>
+        <v>1.12572195198717e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.426388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>124922.8276044656</v>
+        <v>146148.3388766203</v>
       </c>
     </row>
   </sheetData>
@@ -5216,28 +5216,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.9672280638229</v>
+        <v>200.3246424421957</v>
       </c>
       <c r="AB2" t="n">
-        <v>233.9249039785926</v>
+        <v>274.0930134887769</v>
       </c>
       <c r="AC2" t="n">
-        <v>211.599439458608</v>
+        <v>247.9339609734489</v>
       </c>
       <c r="AD2" t="n">
-        <v>170967.2280638229</v>
+        <v>200324.6424421957</v>
       </c>
       <c r="AE2" t="n">
-        <v>233924.9039785926</v>
+        <v>274093.0134887769</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.436119020720344e-06</v>
+        <v>7.85669641994762e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.868055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>211599.439458608</v>
+        <v>247933.9609734489</v>
       </c>
     </row>
     <row r="3">
@@ -5322,28 +5322,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.1794206525141</v>
+        <v>116.6373319405515</v>
       </c>
       <c r="AB3" t="n">
-        <v>132.9651705901743</v>
+        <v>159.5883432369154</v>
       </c>
       <c r="AC3" t="n">
-        <v>120.2751613268725</v>
+        <v>144.3574557420746</v>
       </c>
       <c r="AD3" t="n">
-        <v>97179.42065251409</v>
+        <v>116637.3319405515</v>
       </c>
       <c r="AE3" t="n">
-        <v>132965.1705901743</v>
+        <v>159588.3432369154</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.316144084846865e-06</v>
+        <v>1.118636050734988e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.419444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>120275.1613268725</v>
+        <v>144357.4557420746</v>
       </c>
     </row>
     <row r="4">
@@ -5428,28 +5428,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>96.80860724889062</v>
+        <v>116.266518536928</v>
       </c>
       <c r="AB4" t="n">
-        <v>132.4578073322041</v>
+        <v>159.0809799789452</v>
       </c>
       <c r="AC4" t="n">
-        <v>119.816220106154</v>
+        <v>143.8985145213561</v>
       </c>
       <c r="AD4" t="n">
-        <v>96808.60724889062</v>
+        <v>116266.5185369281</v>
       </c>
       <c r="AE4" t="n">
-        <v>132457.8073322041</v>
+        <v>159080.9799789452</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.346309072229261e-06</v>
+        <v>1.123978494147081e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.402777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>119816.220106154</v>
+        <v>143898.5145213561</v>
       </c>
     </row>
   </sheetData>
@@ -5725,28 +5725,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>219.8036368898371</v>
+        <v>249.6396197707215</v>
       </c>
       <c r="AB2" t="n">
-        <v>300.7450330446114</v>
+        <v>341.5679410928839</v>
       </c>
       <c r="AC2" t="n">
-        <v>272.0423491892275</v>
+        <v>308.9691761886971</v>
       </c>
       <c r="AD2" t="n">
-        <v>219803.6368898371</v>
+        <v>249639.6197707214</v>
       </c>
       <c r="AE2" t="n">
-        <v>300745.0330446115</v>
+        <v>341567.9410928839</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.889313921417078e-06</v>
+        <v>6.782623867154268e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.440277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>272042.3491892275</v>
+        <v>308969.1761886971</v>
       </c>
     </row>
     <row r="3">
@@ -5831,28 +5831,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.4462578044248</v>
+        <v>126.4506411920758</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.644466005414</v>
+        <v>173.0153458874935</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.7443625831886</v>
+        <v>156.5030041046024</v>
       </c>
       <c r="AD3" t="n">
-        <v>106446.2578044248</v>
+        <v>126450.6411920758</v>
       </c>
       <c r="AE3" t="n">
-        <v>145644.466005414</v>
+        <v>173015.3458874935</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.019607962044404e-06</v>
+        <v>1.049767065842765e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.515277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>131744.3625831886</v>
+        <v>156503.0041046024</v>
       </c>
     </row>
     <row r="4">
@@ -5937,28 +5937,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>99.34568777026669</v>
+        <v>119.1794789573255</v>
       </c>
       <c r="AB4" t="n">
-        <v>135.9291528296422</v>
+        <v>163.0666209368749</v>
       </c>
       <c r="AC4" t="n">
-        <v>122.9562652613818</v>
+        <v>147.5037715001445</v>
       </c>
       <c r="AD4" t="n">
-        <v>99345.6877702667</v>
+        <v>119179.4789573255</v>
       </c>
       <c r="AE4" t="n">
-        <v>135929.1528296423</v>
+        <v>163066.6209368749</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.305109716470179e-06</v>
+        <v>1.099556078836016e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.355555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>122956.2652613818</v>
+        <v>147503.7715001445</v>
       </c>
     </row>
   </sheetData>
@@ -6234,28 +6234,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>341.1595169284402</v>
+        <v>382.4238773692659</v>
       </c>
       <c r="AB2" t="n">
-        <v>466.7895019571408</v>
+        <v>523.24922036738</v>
       </c>
       <c r="AC2" t="n">
-        <v>422.2397670335312</v>
+        <v>473.3110491604097</v>
       </c>
       <c r="AD2" t="n">
-        <v>341159.5169284401</v>
+        <v>382423.8773692659</v>
       </c>
       <c r="AE2" t="n">
-        <v>466789.5019571407</v>
+        <v>523249.22036738</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.984098492462861e-06</v>
+        <v>5.072769661944908e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.844444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>422239.7670335312</v>
+        <v>473311.0491604097</v>
       </c>
     </row>
     <row r="3">
@@ -6340,28 +6340,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.7067758284926</v>
+        <v>154.381626476191</v>
       </c>
       <c r="AB3" t="n">
-        <v>182.9435094151013</v>
+        <v>211.2317521813053</v>
       </c>
       <c r="AC3" t="n">
-        <v>165.4836376394035</v>
+        <v>191.072090218808</v>
       </c>
       <c r="AD3" t="n">
-        <v>133706.7758284926</v>
+        <v>154381.626476191</v>
       </c>
       <c r="AE3" t="n">
-        <v>182943.5094151013</v>
+        <v>211231.7521813053</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.255148466227037e-06</v>
+        <v>8.933404100375753e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.886111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>165483.6376394035</v>
+        <v>191072.090218808</v>
       </c>
     </row>
     <row r="4">
@@ -6446,28 +6446,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>107.7217830786793</v>
+        <v>128.2260415257856</v>
       </c>
       <c r="AB4" t="n">
-        <v>147.3896959578517</v>
+        <v>175.4445269492088</v>
       </c>
       <c r="AC4" t="n">
-        <v>133.3230302384119</v>
+        <v>158.7003475351654</v>
       </c>
       <c r="AD4" t="n">
-        <v>107721.7830786793</v>
+        <v>128226.0415257856</v>
       </c>
       <c r="AE4" t="n">
-        <v>147389.6959578517</v>
+        <v>175444.5269492088</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.088043250699991e-06</v>
+        <v>1.034927003272957e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.354166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>133323.0302384119</v>
+        <v>158700.3475351654</v>
       </c>
     </row>
     <row r="5">
@@ -6552,28 +6552,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>104.8446747477483</v>
+        <v>115.1821895801485</v>
       </c>
       <c r="AB5" t="n">
-        <v>143.4531094104125</v>
+        <v>157.5973532630628</v>
       </c>
       <c r="AC5" t="n">
-        <v>129.7621459860251</v>
+        <v>142.5564830569539</v>
       </c>
       <c r="AD5" t="n">
-        <v>104844.6747477483</v>
+        <v>115182.1895801485</v>
       </c>
       <c r="AE5" t="n">
-        <v>143453.1094104125</v>
+        <v>157597.3532630628</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.196713668377518e-06</v>
+        <v>1.05340025404996e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.295833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>129762.1459860251</v>
+        <v>142556.4830569539</v>
       </c>
     </row>
   </sheetData>
@@ -6849,28 +6849,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.4318281231283</v>
+        <v>159.5628694994155</v>
       </c>
       <c r="AB2" t="n">
-        <v>192.1450226529853</v>
+        <v>218.3209574659871</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.8069713682717</v>
+        <v>197.4847117008842</v>
       </c>
       <c r="AD2" t="n">
-        <v>140431.8281231283</v>
+        <v>159562.8694994155</v>
       </c>
       <c r="AE2" t="n">
-        <v>192145.0226529853</v>
+        <v>218320.9574659871</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.04049003889812e-06</v>
+        <v>9.089196321406122e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.383333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>173806.9713682717</v>
+        <v>197484.7117008842</v>
       </c>
     </row>
     <row r="3">
@@ -6955,28 +6955,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.47019241771707</v>
+        <v>113.5158929394326</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.2582849966127</v>
+        <v>155.3174526874168</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.9220556917126</v>
+        <v>140.4941729923863</v>
       </c>
       <c r="AD3" t="n">
-        <v>94470.19241771707</v>
+        <v>113515.8929394326</v>
       </c>
       <c r="AE3" t="n">
-        <v>129258.2849966127</v>
+        <v>155317.4526874168</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.344997623766336e-06</v>
+        <v>1.144153219552335e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.481944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>116922.0556917126</v>
+        <v>140494.1729923863</v>
       </c>
     </row>
   </sheetData>
@@ -7252,28 +7252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.93942764549755</v>
+        <v>113.4428686444498</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.9003133364588</v>
+        <v>155.2175376254169</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.5028097478965</v>
+        <v>140.4037936836719</v>
       </c>
       <c r="AD2" t="n">
-        <v>94939.42764549755</v>
+        <v>113442.8686444498</v>
       </c>
       <c r="AE2" t="n">
-        <v>129900.3133364588</v>
+        <v>155217.5376254169</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.09732433171471e-06</v>
+        <v>1.137565823753646e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.775</v>
       </c>
       <c r="AH2" t="n">
-        <v>117502.8097478965</v>
+        <v>140403.7936836719</v>
       </c>
     </row>
     <row r="3">
@@ -7358,28 +7358,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>91.50863756966513</v>
+        <v>110.0120785686174</v>
       </c>
       <c r="AB3" t="n">
-        <v>125.2061549989313</v>
+        <v>150.5233792878893</v>
       </c>
       <c r="AC3" t="n">
-        <v>113.2566552938085</v>
+        <v>136.1576392295839</v>
       </c>
       <c r="AD3" t="n">
-        <v>91508.63756966512</v>
+        <v>110012.0785686174</v>
       </c>
       <c r="AE3" t="n">
-        <v>125206.1549989313</v>
+        <v>150523.3792878893</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.280108175218578e-06</v>
+        <v>1.171667446398649e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.665277777777777</v>
       </c>
       <c r="AH3" t="n">
-        <v>113256.6552938085</v>
+        <v>136157.6392295839</v>
       </c>
     </row>
   </sheetData>
@@ -12492,28 +12492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.54831900660146</v>
+        <v>108.4819642995866</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.8922047746833</v>
+        <v>148.4298094411252</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.0681066348216</v>
+        <v>134.2638767506505</v>
       </c>
       <c r="AD2" t="n">
-        <v>90548.31900660146</v>
+        <v>108481.9642995866</v>
       </c>
       <c r="AE2" t="n">
-        <v>123892.2047746833</v>
+        <v>148429.8094411252</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.07923498701394e-06</v>
+        <v>1.169059431999352e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>112068.1066348216</v>
+        <v>134263.8767506505</v>
       </c>
     </row>
   </sheetData>
@@ -12789,28 +12789,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.4590683959568</v>
+        <v>129.5799277916927</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.9255057881401</v>
+        <v>177.2969738674687</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.2848961129658</v>
+        <v>160.3759995194727</v>
       </c>
       <c r="AD2" t="n">
-        <v>104459.0683959568</v>
+        <v>129579.9277916928</v>
       </c>
       <c r="AE2" t="n">
-        <v>142925.5057881401</v>
+        <v>177296.9738674687</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.141077143707653e-06</v>
+        <v>1.060398222768491e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.970833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>129284.8961129658</v>
+        <v>160375.9995194727</v>
       </c>
     </row>
   </sheetData>
@@ -13086,28 +13086,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>198.7831092443583</v>
+        <v>218.6036506932838</v>
       </c>
       <c r="AB2" t="n">
-        <v>271.9838197598518</v>
+        <v>299.1031589908334</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.0260657337398</v>
+        <v>270.5571732907569</v>
       </c>
       <c r="AD2" t="n">
-        <v>198783.1092443583</v>
+        <v>218603.6506932838</v>
       </c>
       <c r="AE2" t="n">
-        <v>271983.8197598518</v>
+        <v>299103.1589908334</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.161099240366679e-06</v>
+        <v>7.310887219214642e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.13611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>246026.0657337398</v>
+        <v>270557.1732907568</v>
       </c>
     </row>
     <row r="3">
@@ -13192,28 +13192,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.0366056150906</v>
+        <v>120.6864653548729</v>
       </c>
       <c r="AB3" t="n">
-        <v>138.2427412229597</v>
+        <v>165.128546209546</v>
       </c>
       <c r="AC3" t="n">
-        <v>125.0490480255834</v>
+        <v>149.3689095187227</v>
       </c>
       <c r="AD3" t="n">
-        <v>101036.6056150906</v>
+        <v>120686.4653548729</v>
       </c>
       <c r="AE3" t="n">
-        <v>138242.7412229597</v>
+        <v>165128.546209546</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.194026177604581e-06</v>
+        <v>1.088265965349574e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="AH3" t="n">
-        <v>125049.0480255834</v>
+        <v>149368.9095187227</v>
       </c>
     </row>
     <row r="4">
@@ -13298,28 +13298,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>98.21766263630674</v>
+        <v>117.8675223760891</v>
       </c>
       <c r="AB4" t="n">
-        <v>134.3857390764024</v>
+        <v>161.2715440629887</v>
       </c>
       <c r="AC4" t="n">
-        <v>121.5601527505558</v>
+        <v>145.8800142436951</v>
       </c>
       <c r="AD4" t="n">
-        <v>98217.66263630675</v>
+        <v>117867.5223760891</v>
       </c>
       <c r="AE4" t="n">
-        <v>134385.7390764024</v>
+        <v>161271.5440629887</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.322045797024951e-06</v>
+        <v>1.11075850747281e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.380555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>121560.1527505558</v>
+        <v>145880.0142436952</v>
       </c>
     </row>
   </sheetData>
@@ -13595,28 +13595,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>306.4763175662692</v>
+        <v>337.1647865374954</v>
       </c>
       <c r="AB2" t="n">
-        <v>419.3344184750528</v>
+        <v>461.3237356011833</v>
       </c>
       <c r="AC2" t="n">
-        <v>379.3137301153457</v>
+        <v>417.2956457473351</v>
       </c>
       <c r="AD2" t="n">
-        <v>306476.3175662692</v>
+        <v>337164.7865374954</v>
       </c>
       <c r="AE2" t="n">
-        <v>419334.4184750528</v>
+        <v>461323.7356011833</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.201379031205781e-06</v>
+        <v>5.474001374013673e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.431944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>379313.7301153457</v>
+        <v>417295.645747335</v>
       </c>
     </row>
     <row r="3">
@@ -13701,28 +13701,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>126.4814809046823</v>
+        <v>146.9972944495132</v>
       </c>
       <c r="AB3" t="n">
-        <v>173.0575421428338</v>
+        <v>201.1281833286726</v>
       </c>
       <c r="AC3" t="n">
-        <v>156.5411732085558</v>
+        <v>181.9327917970194</v>
       </c>
       <c r="AD3" t="n">
-        <v>126481.4809046823</v>
+        <v>146997.2944495132</v>
       </c>
       <c r="AE3" t="n">
-        <v>173057.5421428338</v>
+        <v>201128.1833286726</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.438385443312752e-06</v>
+        <v>9.299033041363232e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.786111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>156541.1732085558</v>
+        <v>181932.7917970194</v>
       </c>
     </row>
     <row r="4">
@@ -13807,28 +13807,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>104.1119915394525</v>
+        <v>124.4572128836911</v>
       </c>
       <c r="AB4" t="n">
-        <v>142.4506199211208</v>
+        <v>170.2878493321127</v>
       </c>
       <c r="AC4" t="n">
-        <v>128.8553326865883</v>
+        <v>154.0358159924008</v>
       </c>
       <c r="AD4" t="n">
-        <v>104111.9915394525</v>
+        <v>124457.2128836911</v>
       </c>
       <c r="AE4" t="n">
-        <v>142450.6199211208</v>
+        <v>170287.8493321127</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.19725061313866e-06</v>
+        <v>1.059660791201313e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.323611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>128855.3326865883</v>
+        <v>154035.8159924008</v>
       </c>
     </row>
     <row r="5">
@@ -13913,28 +13913,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>103.3376711033999</v>
+        <v>123.6828924476385</v>
       </c>
       <c r="AB5" t="n">
-        <v>141.3911605399075</v>
+        <v>169.2283899508994</v>
       </c>
       <c r="AC5" t="n">
-        <v>127.896986621757</v>
+        <v>153.0774699275695</v>
       </c>
       <c r="AD5" t="n">
-        <v>103337.6711033999</v>
+        <v>123682.8924476385</v>
       </c>
       <c r="AE5" t="n">
-        <v>141391.1605399075</v>
+        <v>169228.3899508993</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.237877626919883e-06</v>
+        <v>1.066607557800728e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.301388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>127896.986621757</v>
+        <v>153077.4699275695</v>
       </c>
     </row>
   </sheetData>
@@ -14210,28 +14210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.7112525222461</v>
+        <v>153.039786576467</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.1084140405642</v>
+        <v>209.3957876327053</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.3008741742934</v>
+        <v>189.4113475499334</v>
       </c>
       <c r="AD2" t="n">
-        <v>128711.2525222461</v>
+        <v>153039.786576467</v>
       </c>
       <c r="AE2" t="n">
-        <v>176108.4140405642</v>
+        <v>209395.7876327053</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.338973354426045e-06</v>
+        <v>9.300418388274415e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.098611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>159300.8741742934</v>
+        <v>189411.3475499334</v>
       </c>
     </row>
   </sheetData>
@@ -14507,28 +14507,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.7476898495485</v>
+        <v>123.5041777997071</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.3204103940239</v>
+        <v>168.9838646852659</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.6421115775164</v>
+        <v>152.8562818100947</v>
       </c>
       <c r="AD2" t="n">
-        <v>104747.6898495485</v>
+        <v>123504.177799707</v>
       </c>
       <c r="AE2" t="n">
-        <v>143320.4103940239</v>
+        <v>168983.8646852659</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.760725092397402e-06</v>
+        <v>1.061374733602313e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>129642.1115775164</v>
+        <v>152856.2818100947</v>
       </c>
     </row>
     <row r="3">
@@ -14613,28 +14613,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.51700133581882</v>
+        <v>111.2734892859773</v>
       </c>
       <c r="AB3" t="n">
-        <v>126.5858427896518</v>
+        <v>152.2492970808937</v>
       </c>
       <c r="AC3" t="n">
-        <v>114.504667618187</v>
+        <v>137.7188378507653</v>
       </c>
       <c r="AD3" t="n">
-        <v>92517.00133581882</v>
+        <v>111273.4892859774</v>
       </c>
       <c r="AE3" t="n">
-        <v>126585.8427896518</v>
+        <v>152249.2970808937</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.313331428329392e-06</v>
+        <v>1.163188722844885e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.593055555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>114504.667618187</v>
+        <v>137718.8378507653</v>
       </c>
     </row>
   </sheetData>
@@ -14910,28 +14910,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.8994757077515</v>
+        <v>174.4123450441276</v>
       </c>
       <c r="AB2" t="n">
-        <v>211.9402963458216</v>
+        <v>238.6386650188776</v>
       </c>
       <c r="AC2" t="n">
-        <v>191.7130119227111</v>
+        <v>215.8633257610149</v>
       </c>
       <c r="AD2" t="n">
-        <v>154899.4757077515</v>
+        <v>174412.3450441276</v>
       </c>
       <c r="AE2" t="n">
-        <v>211940.2963458216</v>
+        <v>238638.6650188776</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.72799958272977e-06</v>
+        <v>8.44622621326663e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.618055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>191713.0119227111</v>
+        <v>215863.3257610149</v>
       </c>
     </row>
     <row r="3">
@@ -15016,28 +15016,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.37611943571957</v>
+        <v>114.6330557169319</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.4978143093224</v>
+        <v>156.8460040853339</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.043286066508</v>
+        <v>141.876841590222</v>
       </c>
       <c r="AD3" t="n">
-        <v>95376.11943571958</v>
+        <v>114633.0557169319</v>
       </c>
       <c r="AE3" t="n">
-        <v>130497.8143093224</v>
+        <v>156846.0040853339</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.353210133630197e-06</v>
+        <v>1.134954625737867e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.4375</v>
       </c>
       <c r="AH3" t="n">
-        <v>118043.286066508</v>
+        <v>141876.841590222</v>
       </c>
     </row>
     <row r="4">
@@ -15122,28 +15122,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>95.74823272921594</v>
+        <v>115.0051690104282</v>
       </c>
       <c r="AB4" t="n">
-        <v>131.0069561339638</v>
+        <v>157.3551459099753</v>
       </c>
       <c r="AC4" t="n">
-        <v>118.5038361099908</v>
+        <v>142.3373916337048</v>
       </c>
       <c r="AD4" t="n">
-        <v>95748.23272921595</v>
+        <v>115005.1690104282</v>
       </c>
       <c r="AE4" t="n">
-        <v>131006.9561339638</v>
+        <v>157355.1459099753</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.351795129764656e-06</v>
+        <v>1.134701845623743e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.4375</v>
       </c>
       <c r="AH4" t="n">
-        <v>118503.8361099908</v>
+        <v>142337.3916337048</v>
       </c>
     </row>
   </sheetData>
